--- a/5) Март/915/915 Разработка моб приложений_март.xlsx
+++ b/5) Март/915/915 Разработка моб приложений_март.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\5) Март\915\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B37FEA-0232-4516-93A9-7B7379CFA816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0530937-2532-48F4-89FB-B9DCDF38A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22845" yWindow="1485" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="43">
   <si>
     <t>ФИО</t>
   </si>
@@ -127,6 +127,33 @@
   </si>
   <si>
     <t>н</t>
+  </si>
+  <si>
+    <t>Лекция 3.6</t>
+  </si>
+  <si>
+    <t>Лекция 3.7</t>
+  </si>
+  <si>
+    <t>Практика 3.14</t>
+  </si>
+  <si>
+    <t>Практика 3.15</t>
+  </si>
+  <si>
+    <t>Практика 3.16</t>
+  </si>
+  <si>
+    <t>Лекция 3.8</t>
+  </si>
+  <si>
+    <t>Лекция 3.9</t>
+  </si>
+  <si>
+    <t>Лекция 3.10</t>
+  </si>
+  <si>
+    <t>Лекция 3.11</t>
   </si>
 </sst>
 </file>
@@ -233,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,10 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC27" sqref="AC27"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,8 +573,7 @@
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="10" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
     <col min="13" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="12.140625" customWidth="1"/>
@@ -563,8 +586,8 @@
     <col min="22" max="22" width="13.85546875" customWidth="1"/>
     <col min="23" max="23" width="15.85546875" customWidth="1"/>
     <col min="24" max="24" width="15.42578125" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" customWidth="1"/>
-    <col min="26" max="26" width="11" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" customWidth="1"/>
     <col min="27" max="27" width="10.85546875" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" customWidth="1"/>
     <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -574,28 +597,28 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="1">
         <v>45717</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="1">
         <v>45719</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="1">
         <v>45721</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="1">
         <v>45723</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="1">
         <v>45723</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="1">
         <v>45723</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="1">
         <v>45726</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="1">
         <v>45726</v>
       </c>
       <c r="J1" s="1">
@@ -663,16 +686,13 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
       <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
       <c r="P2" t="s">
@@ -687,7 +707,7 @@
       <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="8"/>
+      <c r="U2" s="6"/>
       <c r="W2" t="s">
         <v>33</v>
       </c>
@@ -699,17 +719,13 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="P3" t="s">
@@ -724,7 +740,7 @@
       <c r="T3" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="U3" s="6"/>
       <c r="W3" t="s">
         <v>33</v>
       </c>
@@ -736,17 +752,13 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
@@ -761,7 +773,7 @@
       <c r="T4" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="8"/>
+      <c r="U4" s="6"/>
       <c r="W4" t="s">
         <v>33</v>
       </c>
@@ -773,17 +785,13 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="P5" t="s">
@@ -798,7 +806,7 @@
       <c r="T5" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="6"/>
       <c r="W5" t="s">
         <v>32</v>
       </c>
@@ -810,17 +818,13 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
@@ -835,7 +839,7 @@
       <c r="T6" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="U6" s="6"/>
       <c r="W6" t="s">
         <v>32</v>
       </c>
@@ -847,17 +851,13 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
       <c r="P7" t="s">
@@ -872,7 +872,7 @@
       <c r="T7" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="U7" s="6"/>
       <c r="W7" t="s">
         <v>33</v>
       </c>
@@ -884,17 +884,13 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="P8" t="s">
@@ -909,7 +905,7 @@
       <c r="T8" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="8"/>
+      <c r="U8" s="6"/>
       <c r="W8" t="s">
         <v>33</v>
       </c>
@@ -921,17 +917,13 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
         <v>33</v>
       </c>
       <c r="P9" t="s">
@@ -946,7 +938,7 @@
       <c r="T9" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="8"/>
+      <c r="U9" s="6"/>
       <c r="W9" t="s">
         <v>33</v>
       </c>
@@ -958,17 +950,13 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
         <v>33</v>
       </c>
       <c r="P10" t="s">
@@ -983,7 +971,7 @@
       <c r="T10" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="6"/>
       <c r="W10" t="s">
         <v>33</v>
       </c>
@@ -995,17 +983,13 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="P11" t="s">
@@ -1020,7 +1004,7 @@
       <c r="T11" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="8"/>
+      <c r="U11" s="6"/>
       <c r="W11" t="s">
         <v>32</v>
       </c>
@@ -1032,17 +1016,13 @@
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
         <v>33</v>
       </c>
       <c r="P12" t="s">
@@ -1057,7 +1037,7 @@
       <c r="T12" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="8"/>
+      <c r="U12" s="6"/>
       <c r="W12" t="s">
         <v>33</v>
       </c>
@@ -1069,17 +1049,13 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
         <v>32</v>
       </c>
       <c r="P13" t="s">
@@ -1094,7 +1070,7 @@
       <c r="T13" t="s">
         <v>32</v>
       </c>
-      <c r="U13" s="8"/>
+      <c r="U13" s="6"/>
       <c r="W13" t="s">
         <v>33</v>
       </c>
@@ -1106,17 +1082,13 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
         <v>33</v>
       </c>
       <c r="P14" t="s">
@@ -1131,7 +1103,7 @@
       <c r="T14" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="8"/>
+      <c r="U14" s="6"/>
       <c r="W14" t="s">
         <v>33</v>
       </c>
@@ -1143,17 +1115,13 @@
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
         <v>33</v>
       </c>
       <c r="P15" t="s">
@@ -1168,7 +1136,7 @@
       <c r="T15" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="8"/>
+      <c r="U15" s="6"/>
       <c r="W15" t="s">
         <v>32</v>
       </c>
@@ -1180,17 +1148,13 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
         <v>33</v>
       </c>
       <c r="P16" t="s">
@@ -1205,7 +1169,7 @@
       <c r="T16" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="8"/>
+      <c r="U16" s="6"/>
       <c r="W16" t="s">
         <v>33</v>
       </c>
@@ -1217,17 +1181,13 @@
       <c r="A17" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" t="s">
         <v>32</v>
       </c>
       <c r="P17" t="s">
@@ -1242,7 +1202,7 @@
       <c r="T17" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="8"/>
+      <c r="U17" s="6"/>
       <c r="W17" t="s">
         <v>33</v>
       </c>
@@ -1254,17 +1214,13 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
         <v>32</v>
       </c>
       <c r="P18" t="s">
@@ -1279,7 +1235,7 @@
       <c r="T18" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="8"/>
+      <c r="U18" s="6"/>
       <c r="W18" t="s">
         <v>33</v>
       </c>
@@ -1291,17 +1247,13 @@
       <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
         <v>32</v>
       </c>
       <c r="P19" t="s">
@@ -1316,7 +1268,7 @@
       <c r="T19" t="s">
         <v>32</v>
       </c>
-      <c r="U19" s="8"/>
+      <c r="U19" s="6"/>
       <c r="W19" t="s">
         <v>32</v>
       </c>
@@ -1328,17 +1280,13 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
         <v>33</v>
       </c>
       <c r="P20" t="s">
@@ -1353,7 +1301,7 @@
       <c r="T20" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="8"/>
+      <c r="U20" s="6"/>
       <c r="W20" t="s">
         <v>33</v>
       </c>
@@ -1365,17 +1313,13 @@
       <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
         <v>33</v>
       </c>
       <c r="P21" t="s">
@@ -1390,7 +1334,7 @@
       <c r="T21" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="8"/>
+      <c r="U21" s="6"/>
       <c r="W21" t="s">
         <v>33</v>
       </c>
@@ -1402,17 +1346,13 @@
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
         <v>33</v>
       </c>
       <c r="P22" t="s">
@@ -1427,7 +1367,7 @@
       <c r="T22" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="8"/>
+      <c r="U22" s="6"/>
       <c r="W22" t="s">
         <v>33</v>
       </c>
@@ -1439,17 +1379,13 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" t="s">
         <v>33</v>
       </c>
       <c r="P23" t="s">
@@ -1464,7 +1400,7 @@
       <c r="T23" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="8"/>
+      <c r="U23" s="6"/>
       <c r="W23" t="s">
         <v>33</v>
       </c>
@@ -1476,17 +1412,13 @@
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
         <v>32</v>
       </c>
       <c r="P24" t="s">
@@ -1501,7 +1433,7 @@
       <c r="T24" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="8"/>
+      <c r="U24" s="6"/>
       <c r="W24" t="s">
         <v>33</v>
       </c>
@@ -1513,17 +1445,13 @@
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
         <v>33</v>
       </c>
       <c r="P25" t="s">
@@ -1538,7 +1466,7 @@
       <c r="T25" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="8"/>
+      <c r="U25" s="6"/>
       <c r="W25" t="s">
         <v>33</v>
       </c>
@@ -1550,17 +1478,13 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
         <v>33</v>
       </c>
       <c r="P26" t="s">
@@ -1575,7 +1499,7 @@
       <c r="T26" t="s">
         <v>32</v>
       </c>
-      <c r="U26" s="8"/>
+      <c r="U26" s="6"/>
       <c r="W26" t="s">
         <v>33</v>
       </c>
@@ -1596,8 +1520,7 @@
       <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="9" t="s">
+      <c r="G27" t="s">
         <v>31</v>
       </c>
       <c r="I27" t="s">
@@ -1618,7 +1541,7 @@
       <c r="R27" t="s">
         <v>31</v>
       </c>
-      <c r="U27" s="8" t="s">
+      <c r="U27" s="6" t="s">
         <v>31</v>
       </c>
       <c r="V27" t="s">
@@ -1643,6 +1566,90 @@
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" t="s">
+        <v>39</v>
+      </c>
+      <c r="N28" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" t="s">
+        <v>40</v>
+      </c>
+      <c r="P28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s">
+        <v>40</v>
+      </c>
+      <c r="S28" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" t="s">
+        <v>38</v>
+      </c>
+      <c r="X28" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
